--- a/Data/cafe.xlsx
+++ b/Data/cafe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsand\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsand\Documents\GitHub\Series-de-Tiempo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC5C2C3-062A-46D3-8604-244EE05242B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA29C9-9F9D-4841-888C-D81BF08F7151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28C29C7E-C4AB-4C4F-BF87-3F1F1AC8D1B8}"/>
   </bookViews>
@@ -38,17 +38,17 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>fecha</t>
+    <t>Producción</t>
   </si>
   <si>
-    <t>Toneladas</t>
+    <t>Fecha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +71,12 @@
       <sz val="11"/>
       <name val="Montserrat"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -86,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -254,11 +260,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,9 +343,25 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A1855774-F31C-4700-9DC1-013B5936F23C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,20 +693,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1627573-E182-4A0B-92BD-CF36B187A2A0}">
-  <dimension ref="A1:B296"/>
+  <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="B295" sqref="B295"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -3031,6 +3067,54 @@
       </c>
       <c r="B296" s="3">
         <v>1158.8837518134924</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A297" s="23">
+        <v>45505</v>
+      </c>
+      <c r="B297" s="25">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A298" s="23">
+        <v>45536</v>
+      </c>
+      <c r="B298" s="25">
+        <v>1071.2334084844454</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A299" s="23">
+        <v>45566</v>
+      </c>
+      <c r="B299" s="22">
+        <v>1339.1550080564646</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A300" s="23">
+        <v>45597</v>
+      </c>
+      <c r="B300" s="22">
+        <v>1761.409522227121</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A301" s="24">
+        <v>45627</v>
+      </c>
+      <c r="B301" s="26">
+        <v>1798.2305515042488</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A302" s="24">
+        <v>45658</v>
+      </c>
+      <c r="B302" s="22">
+        <v>1355.7671534537501</v>
       </c>
     </row>
   </sheetData>

--- a/Data/cafe.xlsx
+++ b/Data/cafe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsand\Documents\GitHub\Series-de-Tiempo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA29C9-9F9D-4841-888C-D81BF08F7151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C453ABCE-9C76-42B3-9C9C-B9FED5655565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28C29C7E-C4AB-4C4F-BF87-3F1F1AC8D1B8}"/>
   </bookViews>
@@ -696,7 +696,7 @@
   <dimension ref="A1:B302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
